--- a/data/trans_dic/P18_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P18_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido deprimida en algún momento o más en la última semana</t>
+          <t>Población que se ha sentido deprimida en algún momento o más en la última semana (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>40,14%</t>
+          <t>59,86%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>73,95%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>69,43%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>70,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>64,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>62,25%</t>
+          <t>60,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>44,29%</t>
+          <t>59,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>50,22%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>50,77%</t>
+          <t>55,25%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>54,7%</t>
+          <t>49,58%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>51,66%</t>
+          <t>48,21%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>51,62%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>45,3%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>40,75%</t>
+          <t>44,85%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>47,45%</t>
+          <t>48,34%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>64,17%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>59,0%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>58,81%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>57,53%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>52,56%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>52,27%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,08; 44,26</t>
+          <t>55,66; 64,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,89; 30,04</t>
+          <t>69,74; 77,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,81; 34,24</t>
+          <t>65,18; 73,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,71; 34,31</t>
+          <t>66,52; 74,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,46; 44,08</t>
+          <t>56,7; 68,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,41; 65,54</t>
+          <t>56,25; 63,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>40,43; 48,06</t>
+          <t>56,04; 64,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,94; 54,25</t>
+          <t>34,58; 41,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>45,98; 54,52</t>
+          <t>51,6; 58,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>51,17; 58,76</t>
+          <t>46,04; 53,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>48,79; 54,42</t>
+          <t>44,57; 52,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,66; 38,45</t>
+          <t>47,53; 55,89</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>37,94; 43,47</t>
+          <t>41,22; 49,11</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>37,85; 43,54</t>
+          <t>41,72; 48,71</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>44,47; 49,74</t>
+          <t>45,51; 51,04</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>61,31; 66,95</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>56,51; 61,62</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>55,88; 61,55</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>53,3; 60,62</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>50,01; 55,41</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>49,5; 54,94</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,54%</t>
+          <t>65,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>73,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>64,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>65,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>71,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>60,1%</t>
+          <t>65,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,26%</t>
+          <t>64,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>39,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>48,06%</t>
+          <t>56,44%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>52,73%</t>
+          <t>50,74%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>47,43%</t>
+          <t>51,24%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>53,39%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>41,83%</t>
+          <t>47,26%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>48,59%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>43,01%</t>
+          <t>52,57%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>64,92%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>57,83%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>58,15%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>62,69%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>57,0%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>56,8%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,26; 39,06</t>
+          <t>61,28; 69,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,03; 33,76</t>
+          <t>67,67; 78,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,67; 39,93</t>
+          <t>59,6; 69,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,7; 40,66</t>
+          <t>59,59; 69,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,91; 41,31</t>
+          <t>66,41; 76,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,99; 63,76</t>
+          <t>58,76; 72,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,9; 46,77</t>
+          <t>58,31; 70,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>44,84; 52,86</t>
+          <t>35,91; 44,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,71; 52,46</t>
+          <t>51,62; 60,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>45,73; 59,47</t>
+          <t>46,89; 54,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>44,35; 50,52</t>
+          <t>47,01; 55,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,66; 38,81</t>
+          <t>48,45; 58,08</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>39,05; 45,28</t>
+          <t>40,28; 54,19</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>38,29; 44,56</t>
+          <t>40,87; 54,7</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>38,26; 47,75</t>
+          <t>49,32; 55,53</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>61,36; 68,21</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>54,74; 60,86</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>55,0; 61,24</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>59,5; 66,2</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>52,18; 61,63</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>52,5; 61,36</t>
         </is>
       </c>
     </row>
@@ -1020,75 +1189,105 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>60,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>79,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
+          <t>70,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>63,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>59,48%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>65,48%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>38,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>51,03%</t>
+          <t>34,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>55,5%</t>
+          <t>60,45%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>48,57%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>44,67%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>61,3%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>52,23%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>28,78%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>40,1%</t>
-        </is>
-      </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>47,77%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>69,96%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>59,58%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>54,36%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>60,38%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,24; 48,23</t>
+          <t>51,37; 69,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,98; 26,8</t>
+          <t>70,36; 85,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,28; 38,3</t>
+          <t>62,15; 77,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,7; 46,34</t>
+          <t>52,66; 72,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>44,12; 70,27</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>58,39; 71,8</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,97; 47,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>43,46; 58,94</t>
+          <t>27,38; 41,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,08; 63,16</t>
+          <t>51,81; 68,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>40,87; 55,37</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>37,56; 52,6</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>51,47; 69,9</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>45,99; 58,2</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>23,64; 34,63</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>34,71; 45,81</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>39,12; 51,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>40,97; 53,73</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>63,17; 75,12</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>53,58; 65,2</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>48,24; 60,42</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>50,51; 67,02</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
+          <t>62,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>74,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>67,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>67,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>38,56%</t>
+          <t>66,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,78%</t>
+          <t>61,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>42,89%</t>
+          <t>61,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,76%</t>
+          <t>38,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>50,28%</t>
+          <t>56,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>54,27%</t>
+          <t>49,91%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>50,05%</t>
+          <t>48,96%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>53,41%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>41,08%</t>
+          <t>45,72%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>45,68%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>49,95%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>65,14%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>58,61%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>58,02%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>59,89%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>53,57%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>53,32%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,86; 40,8</t>
+          <t>59,56; 65,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,47; 28,95</t>
+          <t>71,22; 77,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,39; 34,95</t>
+          <t>64,84; 70,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,38; 35,38</t>
+          <t>64,08; 70,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,56; 42,16</t>
+          <t>62,56; 70,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,4; 64,11</t>
+          <t>58,22; 64,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,94; 45,5</t>
+          <t>57,7; 64,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,14; 52,23</t>
+          <t>35,97; 40,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,38; 52,77</t>
+          <t>53,41; 58,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>51,03; 57,56</t>
+          <t>47,45; 52,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>47,95; 51,84</t>
+          <t>46,33; 51,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,37; 36,57</t>
+          <t>50,34; 56,16</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>39,09; 43,06</t>
+          <t>42,37; 48,95</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>39,61; 43,62</t>
+          <t>42,76; 48,55</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>44,15; 48,75</t>
+          <t>47,91; 51,97</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>62,81; 67,09</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>56,72; 60,65</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>56,14; 60,1</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>57,56; 62,33</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>51,16; 56,05</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>50,88; 55,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido deprimida en algún momento o más en la última semana (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>409.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>428.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>471.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>480.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>344.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>411.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>402.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>416.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>344.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>399.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>708.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>811.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>892.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>896.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>688.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>791.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>801.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>981806</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1218936</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1142399</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1156131</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1046981</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>137627</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>136769</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>674100</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>998559</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>904337</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>874007</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>932369</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>107407</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>106090</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1655906</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2217495</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2046737</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>2030138</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>1979349</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>245033</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>242859</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>912812; 1055908</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1149529; 1282578</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1072369; 1206104</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1090163; 1218240</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>926845; 1117910</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>128888; 146021</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>127821; 146031</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>617501; 737114</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>932584; 1064385</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>839735; 969298</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>808064; 943481</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>858580; 1009613</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>97739; 116433</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>98672; 115206</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1558871; 1748553</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2118801; 2313502</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>1960486; 2137684</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1929042; 2124760</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>1833995; 2085818</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>233161; 258344</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>230004; 255276</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>361.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>350.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>351.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>345.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>619.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>649.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>679.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>675.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>577.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>907721</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1009790</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>894974</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>898281</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>996864</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>47586</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>47112</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>562497</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>783770</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>696264</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>704468</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>736550</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>30985</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>32514</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1470218</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1793559</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1591237</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1602750</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>1733413</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>78571</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>79626</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>849789; 970275</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>929884; 1078114</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>822008; 952872</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>823219; 963814</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>920023; 1056779</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>42481; 52057</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>42727; 51473</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>506292; 620486</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>716919; 841991</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>643459; 754562</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>646361; 759259</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>668423; 801184</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>26409; 35526</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>27352; 36606</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1379324; 1552751</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1695197; 1884639</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1505955; 1674455</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1515848; 1687814</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>1645053; 1830294</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>71937; 84956</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>73599; 86017</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>254939</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>331005</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>293206</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>269744</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>251489</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>142170</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>245606</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>198927</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>183994</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>252480</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>397109</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>576611</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>492133</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>453738</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>503969</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>215429; 290741</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>294029; 359067</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>258762; 322157</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>222658; 304826</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>186527; 297126</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>112796; 169489</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>210522; 280068</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>167398; 226784</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>154714; 216645</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>212006; 287925</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>340592; 446646</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>520629; 619160</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>442517; 538476</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>402629; 504368</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>421574; 559451</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>843.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>868.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>922.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>922.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>708.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>564.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>557.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>618.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>766.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>834.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>821.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>696.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>497.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>506.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1461.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1634.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1756.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1743.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>1404.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>1061.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>1063.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2144466</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2559731</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2330578</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2324156</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2295333</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>185213</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>183881</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1378766</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2027934</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1799528</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1762469</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1921398</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>138392</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>138604</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>3523232</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>4587665</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>4130106</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>4086626</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>4216732</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>323604</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>322485</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2052509; 2241766</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2450051; 2653146</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2231060; 2429624</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2206479; 2415721</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2153618; 2414078</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>175497; 195493</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>173904; 195205</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1297494; 1466476</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1924039; 2122654</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1710993; 1891789</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1667765; 1853737</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1811177; 2020357</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>128227; 148149</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>129748; 147314</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3379240; 3665446</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>4423365; 4724697</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>3996552; 4273874</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>3954138; 4232647</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>4052444; 4388153</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>309026; 338579</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>307710; 336226</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
